--- a/outputs-r202/test-f__UBA932.xlsx
+++ b/outputs-r202/test-f__UBA932.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>Row</t>
   </si>
@@ -271,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -281,14 +281,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,7 +310,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
-    <col min="6" max="6" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
     <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="8" max="8" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="15.7109375" customWidth="true"/>
@@ -316,2318 +320,2318 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.010225555338046527</v>
+        <v>0.00063252162225017536</v>
       </c>
       <c r="C2">
-        <v>1.8681692375324575e-13</v>
+        <v>4.3260096472774309e-06</v>
       </c>
       <c r="D2">
-        <v>1.868169237532459e-13</v>
+        <v>1.3512133467085241e-12</v>
       </c>
       <c r="E2">
-        <v>1.8681692375324573e-13</v>
+        <v>1.3512133467085219e-12</v>
       </c>
       <c r="F2">
-        <v>0.73100360385261975</v>
+        <v>0.87786909287869896</v>
       </c>
       <c r="G2">
-        <v>3.0832866166129075e-12</v>
+        <v>0.080317885888524038</v>
       </c>
       <c r="H2">
-        <v>4.7796158071515149e-06</v>
+        <v>0.041176173594123643</v>
       </c>
       <c r="I2">
-        <v>1.8681692375324416e-13</v>
+        <v>1.3512133467085257e-12</v>
       </c>
       <c r="J2">
-        <v>0.2587660611895094</v>
+        <v>1.3512133467085231e-12</v>
       </c>
       <c r="K2">
-        <v>1.8681692375324409e-13</v>
+        <v>1.3512133467085259e-12</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.00049544012583933644</v>
+        <v>0.00020564537915753492</v>
       </c>
       <c r="C3">
-        <v>2.8528472121575258e-07</v>
+        <v>2.7119246163122477e-08</v>
       </c>
       <c r="D3">
-        <v>2.8343826744110109e-12</v>
+        <v>3.4031299138052243e-14</v>
       </c>
       <c r="E3">
-        <v>2.8343826744110097e-12</v>
+        <v>3.4031299138052142e-14</v>
       </c>
       <c r="F3">
-        <v>0.90243031201383672</v>
+        <v>0.9717345601367986</v>
       </c>
       <c r="G3">
-        <v>0.054717319743044127</v>
+        <v>1.2590747319100184e-05</v>
       </c>
       <c r="H3">
-        <v>0.042356642818386553</v>
+        <v>0.02804717661730852</v>
       </c>
       <c r="I3">
-        <v>2.8343826744109297e-12</v>
+        <v>3.4031299138052117e-14</v>
       </c>
       <c r="J3">
-        <v>2.8343826744109281e-12</v>
+        <v>3.4031299138052048e-14</v>
       </c>
       <c r="K3">
-        <v>2.8343826744109329e-12</v>
+        <v>3.4031299138052136e-14</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.00028027774955430599</v>
+        <v>0.00011274908090887155</v>
       </c>
       <c r="C4">
-        <v>3.7772763873740302e-09</v>
+        <v>9.4309011474470037e-06</v>
       </c>
       <c r="D4">
-        <v>5.0985775074570582e-14</v>
+        <v>1.1100351283680452e-12</v>
       </c>
       <c r="E4">
-        <v>5.09857750745705e-14</v>
+        <v>1.1100351283680401e-12</v>
       </c>
       <c r="F4">
-        <v>0.96180101382970473</v>
+        <v>0.97609452144107722</v>
       </c>
       <c r="G4">
-        <v>1.3911103806612277e-05</v>
+        <v>0.022855556590717124</v>
       </c>
       <c r="H4">
-        <v>0.037904793539403125</v>
+        <v>0.00092774198059912929</v>
       </c>
       <c r="I4">
-        <v>5.0985775074570494e-14</v>
+        <v>1.1100351283680418e-12</v>
       </c>
       <c r="J4">
-        <v>5.0985775074570386e-14</v>
+        <v>1.1100351283680393e-12</v>
       </c>
       <c r="K4">
-        <v>5.0985775074570513e-14</v>
+        <v>1.1100351283680434e-12</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.10140806909235575</v>
+        <v>1.9489129617078515e-06</v>
       </c>
       <c r="C5">
-        <v>6.1411024169489348e-10</v>
+        <v>0.00012021890741659975</v>
       </c>
       <c r="D5">
-        <v>3.789207557070125e-11</v>
+        <v>4.2776480382146883e-14</v>
       </c>
       <c r="E5">
-        <v>3.7892075570701257e-11</v>
+        <v>4.2776480382146466e-14</v>
       </c>
       <c r="F5">
-        <v>0.60002495561804281</v>
+        <v>0.99987783023323484</v>
       </c>
       <c r="G5">
-        <v>0.052458267991857953</v>
+        <v>3.2336078757340576e-13</v>
       </c>
       <c r="H5">
-        <v>0.2461087064941728</v>
+        <v>1.9458496983224911e-09</v>
       </c>
       <c r="I5">
-        <v>3.7892075570701244e-11</v>
+        <v>4.2776480382146668e-14</v>
       </c>
       <c r="J5">
-        <v>3.789207557070116e-11</v>
+        <v>4.2776480382146277e-14</v>
       </c>
       <c r="K5">
-        <v>3.7892075570701166e-11</v>
+        <v>4.2776480382146479e-14</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00015023819119973898</v>
+        <v>0.0010047549436258672</v>
       </c>
       <c r="C6">
-        <v>5.5722317850264657e-06</v>
+        <v>5.2168288413642772e-06</v>
       </c>
       <c r="D6">
-        <v>2.0959938114364764e-12</v>
+        <v>1.3748335321478212e-13</v>
       </c>
       <c r="E6">
-        <v>2.0959938114364566e-12</v>
+        <v>1.3748335321478189e-13</v>
       </c>
       <c r="F6">
-        <v>0.98529814611929956</v>
+        <v>0.9264644390073048</v>
       </c>
       <c r="G6">
-        <v>0.0132532349117108</v>
+        <v>0.0034758127953189392</v>
       </c>
       <c r="H6">
-        <v>0.0012928085355250574</v>
+        <v>0.069049776424221554</v>
       </c>
       <c r="I6">
-        <v>2.0959938114360717e-12</v>
+        <v>1.3748335321477863e-13</v>
       </c>
       <c r="J6">
-        <v>2.0959938114360507e-12</v>
+        <v>1.3748335321477851e-13</v>
       </c>
       <c r="K6">
-        <v>2.0959938114360741e-12</v>
+        <v>1.3748335321477871e-13</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.5863185884614373e-06</v>
+        <v>0.017087617090693615</v>
       </c>
       <c r="C7">
-        <v>0.0003311270076715064</v>
+        <v>5.874882024703061e-05</v>
       </c>
       <c r="D7">
-        <v>5.4652884129282391e-14</v>
+        <v>7.1246877000695548e-14</v>
       </c>
       <c r="E7">
-        <v>5.465288412928188e-14</v>
+        <v>7.1246877000695523e-14</v>
       </c>
       <c r="F7">
-        <v>0.99966728085183376</v>
+        <v>0.0085038076788044592</v>
       </c>
       <c r="G7">
-        <v>4.7958952294134305e-12</v>
+        <v>6.8985339823532491e-05</v>
       </c>
       <c r="H7">
-        <v>5.816837075107391e-09</v>
+        <v>0.97428084107007507</v>
       </c>
       <c r="I7">
-        <v>5.4652884129270394e-14</v>
+        <v>7.1246877000695498e-14</v>
       </c>
       <c r="J7">
-        <v>5.4652884129269845e-14</v>
+        <v>7.1246877000695321e-14</v>
       </c>
       <c r="K7">
-        <v>5.4652884129270356e-14</v>
+        <v>7.1246877000695485e-14</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>0.00058590803147186114</v>
+        <v>0.052350013000388058</v>
       </c>
       <c r="C8">
-        <v>1.8182984218122545e-06</v>
+        <v>8.1263833209414886e-05</v>
       </c>
       <c r="D8">
-        <v>1.2839884844178593e-13</v>
+        <v>2.5568837801352666e-09</v>
       </c>
       <c r="E8">
-        <v>1.2839884844178583e-13</v>
+        <v>2.5568837801352584e-09</v>
       </c>
       <c r="F8">
-        <v>0.92221336869860382</v>
+        <v>0.94693574874384789</v>
       </c>
       <c r="G8">
-        <v>0.0058293564072616965</v>
+        <v>6.6332942343324851e-08</v>
       </c>
       <c r="H8">
-        <v>0.071369548563598881</v>
+        <v>0.00063289530519334419</v>
       </c>
       <c r="I8">
-        <v>1.2839884844178283e-13</v>
+        <v>2.5568837801349568e-09</v>
       </c>
       <c r="J8">
-        <v>1.283988484417826e-13</v>
+        <v>2.5568837801349453e-09</v>
       </c>
       <c r="K8">
-        <v>1.2839884844178272e-13</v>
+        <v>2.5568837801349643e-09</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.063698385423615014</v>
+        <v>0.0001912840885944547</v>
       </c>
       <c r="C9">
-        <v>0.0010913836513633255</v>
+        <v>0.001771103006697686</v>
       </c>
       <c r="D9">
-        <v>2.6296847042080529e-09</v>
+        <v>8.3471492285743108e-12</v>
       </c>
       <c r="E9">
-        <v>2.6296847042080417e-09</v>
+        <v>8.3471492285742785e-12</v>
       </c>
       <c r="F9">
-        <v>0.92451259169676769</v>
+        <v>0.93691904429925144</v>
       </c>
       <c r="G9">
-        <v>2.171662511570508e-05</v>
+        <v>0.058539202238990784</v>
       </c>
       <c r="H9">
-        <v>0.010675909454714869</v>
+        <v>0.0025793663247300302</v>
       </c>
       <c r="I9">
-        <v>2.6296847042080384e-09</v>
+        <v>8.3471492285743092e-12</v>
       </c>
       <c r="J9">
-        <v>2.6296847042080309e-09</v>
+        <v>8.3471492285742801e-12</v>
       </c>
       <c r="K9">
-        <v>2.6296847042080438e-09</v>
+        <v>8.347149228574327e-12</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.014055105877610026</v>
+        <v>0.00072925109190233978</v>
       </c>
       <c r="C10">
-        <v>1.7219288687334186e-05</v>
+        <v>0.00074040482995533022</v>
       </c>
       <c r="D10">
-        <v>1.1075764096267928e-13</v>
+        <v>0.00072920046036202394</v>
       </c>
       <c r="E10">
-        <v>1.1075764096267892e-13</v>
+        <v>0.00072920046036201679</v>
       </c>
       <c r="F10">
-        <v>0.01557430753941612</v>
+        <v>0.99342594036140619</v>
       </c>
       <c r="G10">
-        <v>0.00028495935773664531</v>
+        <v>0.00072920046054702646</v>
       </c>
       <c r="H10">
-        <v>0.97006840793599591</v>
+        <v>0.00072920095437893986</v>
       </c>
       <c r="I10">
-        <v>1.1075764096267933e-13</v>
+        <v>0.00072920046036202004</v>
       </c>
       <c r="J10">
-        <v>1.1075764096267918e-13</v>
+        <v>0.00072920046036201538</v>
       </c>
       <c r="K10">
-        <v>1.1075764096267931e-13</v>
+        <v>0.00072920046036201863</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.045374780177979461</v>
+        <v>0.0005356552106879674</v>
       </c>
       <c r="C11">
-        <v>0.0059570074694924556</v>
+        <v>0.26931437652596041</v>
       </c>
       <c r="D11">
-        <v>1.6839571856449819e-09</v>
+        <v>1.5505237769220352e-11</v>
       </c>
       <c r="E11">
-        <v>1.6839571856449751e-09</v>
+        <v>1.5505237769220335e-11</v>
       </c>
       <c r="F11">
-        <v>0.92661805065523872</v>
+        <v>0.57403056063706903</v>
       </c>
       <c r="G11">
-        <v>0.00025464595215061927</v>
+        <v>0.14840411851208918</v>
       </c>
       <c r="H11">
-        <v>0.02179550732535241</v>
+        <v>0.0077152890366674731</v>
       </c>
       <c r="I11">
-        <v>1.6839571856449736e-09</v>
+        <v>1.5505237769220116e-11</v>
       </c>
       <c r="J11">
-        <v>1.6839571856449629e-09</v>
+        <v>1.5505237769220109e-11</v>
       </c>
       <c r="K11">
-        <v>1.6839571856449691e-09</v>
+        <v>1.5505237769220132e-11</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.19810578995397377</v>
+        <v>0.00028936691884774973</v>
       </c>
       <c r="C12">
-        <v>2.187355408315369e-10</v>
+        <v>0.025952858580520804</v>
       </c>
       <c r="D12">
-        <v>2.187355408315375e-10</v>
+        <v>1.0721831121567484e-11</v>
       </c>
       <c r="E12">
-        <v>2.1873554083153698e-10</v>
+        <v>1.0721831121567473e-11</v>
       </c>
       <c r="F12">
-        <v>0.73729959390965238</v>
+        <v>0.77348730086542383</v>
       </c>
       <c r="G12">
-        <v>3.6834091663999185e-07</v>
+        <v>0.18772116332705233</v>
       </c>
       <c r="H12">
-        <v>0.064594246483044057</v>
+        <v>0.012549310254545788</v>
       </c>
       <c r="I12">
-        <v>2.1873554083153706e-10</v>
+        <v>1.0721831121567468e-11</v>
       </c>
       <c r="J12">
-        <v>2.1873554083153696e-10</v>
+        <v>1.0721831121567465e-11</v>
       </c>
       <c r="K12">
-        <v>2.1873554083153716e-10</v>
+        <v>1.0721831121567463e-11</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.00016109152982169032</v>
+        <v>4.2698141092570944e-06</v>
       </c>
       <c r="C13">
-        <v>0.00032162584025833613</v>
+        <v>0.27750271380634606</v>
       </c>
       <c r="D13">
-        <v>1.1877757050169358e-11</v>
+        <v>1.5741220504606485e-12</v>
       </c>
       <c r="E13">
-        <v>1.1877757050169282e-11</v>
+        <v>1.5741220504606481e-12</v>
       </c>
       <c r="F13">
-        <v>0.97890328629037215</v>
+        <v>0.44057674778556377</v>
       </c>
       <c r="G13">
-        <v>0.018714684867115403</v>
+        <v>0.28004493286154664</v>
       </c>
       <c r="H13">
-        <v>0.0018993114130436846</v>
+        <v>0.0018713357245637038</v>
       </c>
       <c r="I13">
-        <v>1.1877757050169258e-11</v>
+        <v>1.5741220504606464e-12</v>
       </c>
       <c r="J13">
-        <v>1.187775705016916e-11</v>
+        <v>1.5741220504606464e-12</v>
       </c>
       <c r="K13">
-        <v>1.1877757050169203e-11</v>
+        <v>1.5741220504606474e-12</v>
       </c>
       <c r="L13">
         <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.00064685457032079632</v>
+        <v>0.057086866749127531</v>
       </c>
       <c r="C14">
-        <v>0.00064719760161815738</v>
+        <v>1.5417590741536689e-09</v>
       </c>
       <c r="D14">
-        <v>0.00064669828586404394</v>
+        <v>4.0028047641496524e-11</v>
       </c>
       <c r="E14">
-        <v>0.00064669828586403819</v>
+        <v>4.0028047641496324e-11</v>
       </c>
       <c r="F14">
-        <v>0.99417905951226249</v>
+        <v>0.94291309122131572</v>
       </c>
       <c r="G14">
-        <v>0.00064669828591152982</v>
+        <v>4.0028047641496459e-11</v>
       </c>
       <c r="H14">
-        <v>0.00064669860056680518</v>
+        <v>4.0247629266813011e-08</v>
       </c>
       <c r="I14">
-        <v>0.00064669828586404177</v>
+        <v>4.0028047641496459e-11</v>
       </c>
       <c r="J14">
-        <v>0.00064669828586403646</v>
+        <v>4.002804764149644e-11</v>
       </c>
       <c r="K14">
-        <v>0.00064669828586404166</v>
+        <v>4.0028047641496556e-11</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0030638582759125424</v>
+        <v>1.3133808773326796e-06</v>
       </c>
       <c r="C15">
-        <v>0.26406008246428631</v>
+        <v>0.0078844338201321598</v>
       </c>
       <c r="D15">
-        <v>6.7410327706956571e-11</v>
+        <v>4.4144213000406961e-13</v>
       </c>
       <c r="E15">
-        <v>6.7410327706956545e-11</v>
+        <v>4.4144213000406461e-13</v>
       </c>
       <c r="F15">
-        <v>0.5301674397320334</v>
+        <v>0.99211368724246041</v>
       </c>
       <c r="G15">
-        <v>0.17761851843595702</v>
+        <v>4.1042170066859342e-09</v>
       </c>
       <c r="H15">
-        <v>0.02509010075475893</v>
+        <v>5.6145010598480381e-07</v>
       </c>
       <c r="I15">
-        <v>6.7410327706956481e-11</v>
+        <v>4.4144213000396813e-13</v>
       </c>
       <c r="J15">
-        <v>6.7410327706956429e-11</v>
+        <v>4.4144213000396419e-13</v>
       </c>
       <c r="K15">
-        <v>6.7410327706956468e-11</v>
+        <v>4.4144213000396787e-13</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.00010423186960577363</v>
+        <v>0.062539253830969546</v>
       </c>
       <c r="C16">
-        <v>0.0066835586672405276</v>
+        <v>1.9866445939463377e-09</v>
       </c>
       <c r="D16">
-        <v>5.80649923052279e-12</v>
+        <v>4.6500418312287813e-11</v>
       </c>
       <c r="E16">
-        <v>5.8064992305227852e-12</v>
+        <v>4.650041831228751e-11</v>
       </c>
       <c r="F16">
-        <v>0.9052598494172458</v>
+        <v>0.93746069647856689</v>
       </c>
       <c r="G16">
-        <v>0.085155707527711719</v>
+        <v>4.6500418312287846e-11</v>
       </c>
       <c r="H16">
-        <v>0.0027966524891636325</v>
+        <v>4.7424816493042338e-08</v>
       </c>
       <c r="I16">
-        <v>5.8064992305225525e-12</v>
+        <v>4.6500418312287794e-11</v>
       </c>
       <c r="J16">
-        <v>5.806499230522542e-12</v>
+        <v>4.6500418312287775e-11</v>
       </c>
       <c r="K16">
-        <v>5.806499230522559e-12</v>
+        <v>4.6500418312287826e-11</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>9.3581435032533198e-06</v>
+        <v>0.00024591019038517053</v>
       </c>
       <c r="C17">
-        <v>0.2412209173835464</v>
+        <v>3.4621317811256606e-08</v>
       </c>
       <c r="D17">
-        <v>2.0005955129820355e-12</v>
+        <v>3.3969585214535221e-14</v>
       </c>
       <c r="E17">
-        <v>2.0005955129820339e-12</v>
+        <v>3.3969585214535196e-14</v>
       </c>
       <c r="F17">
-        <v>0.46673769016474292</v>
+        <v>0.97105414617334429</v>
       </c>
       <c r="G17">
-        <v>0.28952538192902727</v>
+        <v>1.1389242674281231e-05</v>
       </c>
       <c r="H17">
-        <v>0.00250665236917717</v>
+        <v>0.028688519772108553</v>
       </c>
       <c r="I17">
-        <v>2.0005955129820339e-12</v>
+        <v>3.3969585214533991e-14</v>
       </c>
       <c r="J17">
-        <v>2.0005955129820335e-12</v>
+        <v>3.3969585214533965e-14</v>
       </c>
       <c r="K17">
-        <v>2.0005955129820339e-12</v>
+        <v>3.3969585214534016e-14</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.059644774976973895</v>
+        <v>0.00024689363618380695</v>
       </c>
       <c r="C18">
-        <v>3.3927621584023098e-12</v>
+        <v>0.3208790381706807</v>
       </c>
       <c r="D18">
-        <v>3.392762158401937e-12</v>
+        <v>2.2132956134722111e-11</v>
       </c>
       <c r="E18">
-        <v>3.392762158401931e-12</v>
+        <v>2.2132956134722085e-11</v>
       </c>
       <c r="F18">
-        <v>0.94035522482334544</v>
+        <v>0.66628944306979065</v>
       </c>
       <c r="G18">
-        <v>3.3927621584019277e-12</v>
+        <v>0.0069860660487179455</v>
       </c>
       <c r="H18">
-        <v>1.7593116446707209e-10</v>
+        <v>0.0055985589639622971</v>
       </c>
       <c r="I18">
-        <v>3.3927621584019164e-12</v>
+        <v>2.2132956134722117e-11</v>
       </c>
       <c r="J18">
-        <v>3.392762158401912e-12</v>
+        <v>2.2132956134722085e-11</v>
       </c>
       <c r="K18">
-        <v>3.392762158401931e-12</v>
+        <v>2.2132956134722046e-11</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>1.5548124439644482e-05</v>
+        <v>0.010428677384097074</v>
       </c>
       <c r="C19">
-        <v>0.015949283046225681</v>
+        <v>5.0711759084255122e-06</v>
       </c>
       <c r="D19">
-        <v>7.1686647764787738e-12</v>
+        <v>3.1964668220545556e-11</v>
       </c>
       <c r="E19">
-        <v>7.168664776478697e-12</v>
+        <v>3.1964668220545427e-11</v>
       </c>
       <c r="F19">
-        <v>0.98386159153286212</v>
+        <v>0.96258374536052582</v>
       </c>
       <c r="G19">
-        <v>1.2737820939173295e-05</v>
+        <v>0.0010874242809969768</v>
       </c>
       <c r="H19">
-        <v>0.00016083943968997065</v>
+        <v>0.025895081638648444</v>
       </c>
       <c r="I19">
-        <v>7.1686647764786744e-12</v>
+        <v>3.1964668220545453e-11</v>
       </c>
       <c r="J19">
-        <v>7.1686647764786171e-12</v>
+        <v>3.1964668220545336e-11</v>
       </c>
       <c r="K19">
-        <v>7.1686647764786776e-12</v>
+        <v>3.196466822054542e-11</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.039739109545805125</v>
+        <v>9.1101643450257005e-05</v>
       </c>
       <c r="C20">
-        <v>3.9995643646995735e-12</v>
+        <v>0.026787467535299474</v>
       </c>
       <c r="D20">
-        <v>3.9995643646939173e-12</v>
+        <v>7.2254614990006209e-13</v>
       </c>
       <c r="E20">
-        <v>3.9995643646939109e-12</v>
+        <v>7.2254614990006178e-13</v>
       </c>
       <c r="F20">
-        <v>0.96026088998846915</v>
+        <v>0.95055253555828134</v>
       </c>
       <c r="G20">
-        <v>3.9995643646939141e-12</v>
+        <v>0.022186312869397408</v>
       </c>
       <c r="H20">
-        <v>4.3772873916867208e-10</v>
+        <v>0.00038258238995902299</v>
       </c>
       <c r="I20">
-        <v>3.9995643646939133e-12</v>
+        <v>7.2254614990002998e-13</v>
       </c>
       <c r="J20">
-        <v>3.9995643646939036e-12</v>
+        <v>7.2254614990002856e-13</v>
       </c>
       <c r="K20">
-        <v>3.9995643646939173e-12</v>
+        <v>7.2254614990002967e-13</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.00029952777261956366</v>
+        <v>0.00015013823732493051</v>
       </c>
       <c r="C21">
-        <v>2.1557235008202452e-07</v>
+        <v>0.0044516686120693386</v>
       </c>
       <c r="D21">
-        <v>2.4104795256192008e-14</v>
+        <v>9.6983621434393889e-12</v>
       </c>
       <c r="E21">
-        <v>2.4104795256192002e-14</v>
+        <v>9.6983621434393534e-12</v>
       </c>
       <c r="F21">
-        <v>0.96634325748951533</v>
+        <v>0.93234565968934291</v>
       </c>
       <c r="G21">
-        <v>7.0320084187916256e-06</v>
+        <v>0.060790447458497633</v>
       </c>
       <c r="H21">
-        <v>0.033349967156975871</v>
+        <v>0.002262085954273092</v>
       </c>
       <c r="I21">
-        <v>2.4104795256191649e-14</v>
+        <v>9.6983621434393712e-12</v>
       </c>
       <c r="J21">
-        <v>2.4104795256191636e-14</v>
+        <v>9.6983621434393599e-12</v>
       </c>
       <c r="K21">
-        <v>2.4104795256191639e-14</v>
+        <v>9.6983621434393728e-12</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0021977740906703519</v>
+        <v>0.00036169800321083029</v>
       </c>
       <c r="C22">
-        <v>0.27695901758922165</v>
+        <v>0.022506677978905876</v>
       </c>
       <c r="D22">
-        <v>1.3109729636078941e-10</v>
+        <v>1.4587731919695656e-11</v>
       </c>
       <c r="E22">
-        <v>1.310972963607891e-10</v>
+        <v>1.4587731919695646e-11</v>
       </c>
       <c r="F22">
-        <v>0.65296851613423801</v>
+        <v>0.77999991576480854</v>
       </c>
       <c r="G22">
-        <v>0.03911214383960894</v>
+        <v>0.18064406261980087</v>
       </c>
       <c r="H22">
-        <v>0.028762547690774382</v>
+        <v>0.016487645560335405</v>
       </c>
       <c r="I22">
-        <v>1.3109729636078907e-10</v>
+        <v>1.4587731919695688e-11</v>
       </c>
       <c r="J22">
-        <v>1.3109729636078874e-10</v>
+        <v>1.4587731919695662e-11</v>
       </c>
       <c r="K22">
-        <v>1.3109729636078913e-10</v>
+        <v>1.4587731919695678e-11</v>
       </c>
       <c r="L22">
         <v>5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.017357947596835809</v>
+        <v>0.061682358596263143</v>
       </c>
       <c r="C23">
-        <v>1.4264573451695495e-06</v>
+        <v>4.2042621967340245e-10</v>
       </c>
       <c r="D23">
-        <v>5.526232605334037e-11</v>
+        <v>2.8928587727021437e-11</v>
       </c>
       <c r="E23">
-        <v>5.5262326053340112e-11</v>
+        <v>2.892858772702136e-11</v>
       </c>
       <c r="F23">
-        <v>0.96673832117311898</v>
+        <v>0.9383176261314633</v>
       </c>
       <c r="G23">
-        <v>0.00018000451214651288</v>
+        <v>2.8928587727021395e-11</v>
       </c>
       <c r="H23">
-        <v>0.015722299984241683</v>
+        <v>1.4678275586004352e-08</v>
       </c>
       <c r="I23">
-        <v>5.5262326053333339e-11</v>
+        <v>2.8928587727021405e-11</v>
       </c>
       <c r="J23">
-        <v>5.5262326053333107e-11</v>
+        <v>2.8928587727021363e-11</v>
       </c>
       <c r="K23">
-        <v>5.5262326053333275e-11</v>
+        <v>2.8928587727021379e-11</v>
       </c>
       <c r="L23">
         <v>5</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.00010237104898105027</v>
+        <v>8.0910977755112697e-05</v>
       </c>
       <c r="C24">
-        <v>0.0082103881893789074</v>
+        <v>0.021011660397665579</v>
       </c>
       <c r="D24">
-        <v>8.2992455370851682e-13</v>
+        <v>6.0553352250887393e-12</v>
       </c>
       <c r="E24">
-        <v>8.299245537085146e-13</v>
+        <v>6.0553352250887313e-12</v>
       </c>
       <c r="F24">
-        <v>0.96622638504620972</v>
+        <v>0.82398430516864341</v>
       </c>
       <c r="G24">
-        <v>0.024640855258353019</v>
+        <v>0.15060222682436264</v>
       </c>
       <c r="H24">
-        <v>0.00082000045292766855</v>
+        <v>0.0043208966012962527</v>
       </c>
       <c r="I24">
-        <v>8.2992455370851348e-13</v>
+        <v>6.0553352250887361e-12</v>
       </c>
       <c r="J24">
-        <v>8.2992455370850803e-13</v>
+        <v>6.0553352250887288e-12</v>
       </c>
       <c r="K24">
-        <v>8.2992455370851167e-13</v>
+        <v>6.0553352250887353e-12</v>
       </c>
       <c r="L24">
         <v>5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.00019362682359588983</v>
+        <v>0.013719921622795436</v>
       </c>
       <c r="C25">
-        <v>0.0016582606786270761</v>
+        <v>0.064236708761576</v>
       </c>
       <c r="D25">
-        <v>8.0583218582188179e-12</v>
+        <v>1.0562384915662948e-09</v>
       </c>
       <c r="E25">
-        <v>8.058321858218805e-12</v>
+        <v>1.0562384915662944e-09</v>
       </c>
       <c r="F25">
-        <v>0.92171824242319689</v>
+        <v>0.84750727029605466</v>
       </c>
       <c r="G25">
-        <v>0.073167852939988648</v>
+        <v>0.0020971499631891001</v>
       </c>
       <c r="H25">
-        <v>0.0032620170942999193</v>
+        <v>0.072438944075192163</v>
       </c>
       <c r="I25">
-        <v>8.0583218582188292e-12</v>
+        <v>1.0562384915662561e-09</v>
       </c>
       <c r="J25">
-        <v>8.058321858218826e-12</v>
+        <v>1.0562384915662538e-09</v>
       </c>
       <c r="K25">
-        <v>8.0583218582188276e-12</v>
+        <v>1.0562384915662567e-09</v>
       </c>
       <c r="L25">
         <v>5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0007569047175484089</v>
+        <v>7.693450476683306e-05</v>
       </c>
       <c r="C26">
-        <v>0.0094574819872744274</v>
+        <v>5.1663323595298988e-09</v>
       </c>
       <c r="D26">
-        <v>1.3515032815282311e-11</v>
+        <v>2.4364854069329869e-13</v>
       </c>
       <c r="E26">
-        <v>1.3515032815282306e-11</v>
+        <v>2.4364854069329631e-13</v>
       </c>
       <c r="F26">
-        <v>0.77180243926780856</v>
+        <v>0.99658360757423237</v>
       </c>
       <c r="G26">
-        <v>0.18983181372453475</v>
+        <v>0.0020508584851703119</v>
       </c>
       <c r="H26">
-        <v>0.028151360235258389</v>
+        <v>0.0012885942682800602</v>
       </c>
       <c r="I26">
-        <v>1.3515032815282305e-11</v>
+        <v>2.4364854069324472e-13</v>
       </c>
       <c r="J26">
-        <v>1.3515032815282302e-11</v>
+        <v>2.436485406932428e-13</v>
       </c>
       <c r="K26">
-        <v>1.3515032815282318e-11</v>
+        <v>2.4364854069324396e-13</v>
       </c>
       <c r="L26">
         <v>5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0.041264667260204654</v>
+        <v>0.00022758491789272263</v>
       </c>
       <c r="C27">
-        <v>3.0669911640907922e-12</v>
+        <v>1.033682876905045e-08</v>
       </c>
       <c r="D27">
-        <v>3.0669911640893705e-12</v>
+        <v>4.0558122780985243e-14</v>
       </c>
       <c r="E27">
-        <v>3.066991164089358e-12</v>
+        <v>4.0558122780985186e-14</v>
       </c>
       <c r="F27">
-        <v>0.95873533249029075</v>
+        <v>0.97249496647147149</v>
       </c>
       <c r="G27">
-        <v>3.066991164089362e-12</v>
+        <v>1.110529505405947e-05</v>
       </c>
       <c r="H27">
-        <v>2.2803541931616057e-10</v>
+        <v>0.027266332978550193</v>
       </c>
       <c r="I27">
-        <v>3.0669911640893604e-12</v>
+        <v>4.0558122780985155e-14</v>
       </c>
       <c r="J27">
-        <v>3.0669911640893572e-12</v>
+        <v>4.0558122780985092e-14</v>
       </c>
       <c r="K27">
-        <v>3.0669911640893632e-12</v>
+        <v>4.0558122780985205e-14</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.00017014805784834424</v>
+        <v>2.1901146543524249e-05</v>
       </c>
       <c r="C28">
-        <v>0.021368835817360793</v>
+        <v>0.001320880544698002</v>
       </c>
       <c r="D28">
-        <v>1.0105451660419963e-11</v>
+        <v>1.4337810448536972e-12</v>
       </c>
       <c r="E28">
-        <v>1.0105451660419947e-11</v>
+        <v>1.4337810448536926e-12</v>
       </c>
       <c r="F28">
-        <v>0.81551343633860396</v>
+        <v>0.8406817706644435</v>
       </c>
       <c r="G28">
-        <v>0.15421786814065744</v>
+        <v>0.1564507075373984</v>
       </c>
       <c r="H28">
-        <v>0.0087297115950025587</v>
+        <v>0.0015247400997476001</v>
       </c>
       <c r="I28">
-        <v>1.0105451660419733e-11</v>
+        <v>1.4337810448536932e-12</v>
       </c>
       <c r="J28">
-        <v>1.0105451660419716e-11</v>
+        <v>1.4337810448536928e-12</v>
       </c>
       <c r="K28">
-        <v>1.0105451660419745e-11</v>
+        <v>1.433781044853692e-12</v>
       </c>
       <c r="L28">
         <v>5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.053820529871046241</v>
+        <v>0.079633671867595859</v>
       </c>
       <c r="C29">
-        <v>2.7412769136772296e-11</v>
+        <v>0.00018359490092888803</v>
       </c>
       <c r="D29">
-        <v>1.456935314475733e-11</v>
+        <v>8.1952526352556988e-11</v>
       </c>
       <c r="E29">
-        <v>1.4569353144757324e-11</v>
+        <v>8.1952526352556885e-11</v>
       </c>
       <c r="F29">
-        <v>0.77672194412042617</v>
+        <v>0.68757369380850997</v>
       </c>
       <c r="G29">
-        <v>0.0069590896342033573</v>
+        <v>0.029307810579967144</v>
       </c>
       <c r="H29">
-        <v>0.16249843627406491</v>
+        <v>0.20330122843323548</v>
       </c>
       <c r="I29">
-        <v>1.456935314475733e-11</v>
+        <v>8.1952526352557091e-11</v>
       </c>
       <c r="J29">
-        <v>1.456935314475733e-11</v>
+        <v>8.1952526352556949e-11</v>
       </c>
       <c r="K29">
-        <v>1.456935314475734e-11</v>
+        <v>8.195252635255704e-11</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.022644528308619231</v>
+        <v>0.00078120708315095402</v>
       </c>
       <c r="C30">
-        <v>0.018461341652095165</v>
+        <v>1.9211245832515862e-06</v>
       </c>
       <c r="D30">
-        <v>1.6796640459328493e-09</v>
+        <v>8.2220097709386525e-11</v>
       </c>
       <c r="E30">
-        <v>1.6796640459328419e-09</v>
+        <v>8.2220097709386047e-11</v>
       </c>
       <c r="F30">
-        <v>0.8651078743503231</v>
+        <v>0.96497156996344857</v>
       </c>
       <c r="G30">
-        <v>0.0015663862718708955</v>
+        <v>0.00068232356584826026</v>
       </c>
       <c r="H30">
-        <v>0.092219861018771512</v>
+        <v>0.03356297785186841</v>
       </c>
       <c r="I30">
-        <v>1.6796640459327693e-09</v>
+        <v>8.2220097709386396e-11</v>
       </c>
       <c r="J30">
-        <v>1.6796640459327633e-09</v>
+        <v>8.222009770938597e-11</v>
       </c>
       <c r="K30">
-        <v>1.6796640459327647e-09</v>
+        <v>8.2220097709386487e-11</v>
       </c>
       <c r="L30">
         <v>5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>5.8112793365635253e-06</v>
+        <v>6.5590716349040471e-05</v>
       </c>
       <c r="C31">
-        <v>9.0117888066862576e-11</v>
+        <v>0.022595658292169824</v>
       </c>
       <c r="D31">
-        <v>3.9255516601123294e-14</v>
+        <v>6.2126962123816984e-12</v>
       </c>
       <c r="E31">
-        <v>3.9255516601122878e-14</v>
+        <v>6.2126962123816904e-12</v>
       </c>
       <c r="F31">
-        <v>0.9998784293877534</v>
+        <v>0.82166443403360534</v>
       </c>
       <c r="G31">
-        <v>6.3040700564760249e-05</v>
+        <v>0.15163524656664035</v>
       </c>
       <c r="H31">
-        <v>5.2718542031324622e-05</v>
+        <v>0.0040390703601723647</v>
       </c>
       <c r="I31">
-        <v>3.9255516601122979e-14</v>
+        <v>6.2126962123816718e-12</v>
       </c>
       <c r="J31">
-        <v>3.9255516601122518e-14</v>
+        <v>6.2126962123816669e-12</v>
       </c>
       <c r="K31">
-        <v>3.9255516601123111e-14</v>
+        <v>6.212696212381692e-12</v>
       </c>
       <c r="L31">
         <v>5</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00035832508400385476</v>
+        <v>8.1364838426871085e-06</v>
       </c>
       <c r="C32">
-        <v>3.5476791729658674e-09</v>
+        <v>0.12440424135443223</v>
       </c>
       <c r="D32">
-        <v>5.4626574817231948e-14</v>
+        <v>3.0336346080391919e-11</v>
       </c>
       <c r="E32">
-        <v>5.462657481723186e-14</v>
+        <v>3.0336346080391841e-11</v>
       </c>
       <c r="F32">
-        <v>0.96750576568136815</v>
+        <v>0.87556903453427837</v>
       </c>
       <c r="G32">
-        <v>1.1818368058699047e-05</v>
+        <v>4.9732921863512376e-09</v>
       </c>
       <c r="H32">
-        <v>0.032124087318617087</v>
+        <v>1.8582502472642541e-05</v>
       </c>
       <c r="I32">
-        <v>5.462657481723186e-14</v>
+        <v>3.0336346080390736e-11</v>
       </c>
       <c r="J32">
-        <v>5.4626574817231765e-14</v>
+        <v>3.0336346080390717e-11</v>
       </c>
       <c r="K32">
-        <v>5.4626574817231866e-14</v>
+        <v>3.033634608039071e-11</v>
       </c>
       <c r="L32">
         <v>5</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>1.9884927448263755e-05</v>
+        <v>0.013649669744938092</v>
       </c>
       <c r="C33">
-        <v>0.00067766133550569753</v>
+        <v>1.8783182184490327e-09</v>
       </c>
       <c r="D33">
-        <v>8.3162708438109389e-13</v>
+        <v>2.2199905755108113e-14</v>
       </c>
       <c r="E33">
-        <v>8.3162708438109328e-13</v>
+        <v>2.2199905755108113e-14</v>
       </c>
       <c r="F33">
-        <v>0.8782797055326107</v>
+        <v>0.98635032837656111</v>
       </c>
       <c r="G33">
-        <v>0.11983290883511608</v>
+        <v>2.2199905755108113e-14</v>
       </c>
       <c r="H33">
-        <v>0.0011898393651610063</v>
+        <v>4.9204432673557781e-14</v>
       </c>
       <c r="I33">
-        <v>8.3162708438109439e-13</v>
+        <v>2.2199905755108113e-14</v>
       </c>
       <c r="J33">
-        <v>8.3162708438109298e-13</v>
+        <v>2.2199905755108113e-14</v>
       </c>
       <c r="K33">
-        <v>8.3162708438109318e-13</v>
+        <v>2.2199905755108113e-14</v>
       </c>
       <c r="L33">
         <v>5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.13363514863948828</v>
+        <v>0.00018448314296589795</v>
       </c>
       <c r="C34">
-        <v>3.4895061479023096e-05</v>
+        <v>1.6247182196844973e-08</v>
       </c>
       <c r="D34">
-        <v>1.3953719129173397e-10</v>
+        <v>6.600322842701721e-13</v>
       </c>
       <c r="E34">
-        <v>1.3953719129173389e-10</v>
+        <v>6.6003228427016866e-13</v>
       </c>
       <c r="F34">
-        <v>0.64425213546364102</v>
+        <v>0.98693590797938646</v>
       </c>
       <c r="G34">
-        <v>0.0088560025754799501</v>
+        <v>0.0058065022690647295</v>
       </c>
       <c r="H34">
-        <v>0.21322181756222605</v>
+        <v>0.0070730903581005056</v>
       </c>
       <c r="I34">
-        <v>1.3953719129173399e-10</v>
+        <v>6.6003228427006537e-13</v>
       </c>
       <c r="J34">
-        <v>1.3953719129173384e-10</v>
+        <v>6.6003228427006365e-13</v>
       </c>
       <c r="K34">
-        <v>1.3953719129173373e-10</v>
+        <v>6.6003228427006355e-13</v>
       </c>
       <c r="L34">
         <v>5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.0011716945123060897</v>
+        <v>0.00022572206740590844</v>
       </c>
       <c r="C35">
-        <v>6.1884342401142439e-08</v>
+        <v>1.1256424775089471e-08</v>
       </c>
       <c r="D35">
-        <v>7.4537166452648974e-11</v>
+        <v>4.3874712144183627e-14</v>
       </c>
       <c r="E35">
-        <v>7.4537166452648522e-11</v>
+        <v>4.3874712144183563e-14</v>
       </c>
       <c r="F35">
-        <v>0.98543944519557103</v>
+        <v>0.97397648619470767</v>
       </c>
       <c r="G35">
-        <v>1.8817579072911407e-05</v>
+        <v>1.3455059872983926e-05</v>
       </c>
       <c r="H35">
-        <v>0.013369980456021856</v>
+        <v>0.02578432542136927</v>
       </c>
       <c r="I35">
-        <v>7.4537166452632702e-11</v>
+        <v>4.38747121441835e-14</v>
       </c>
       <c r="J35">
-        <v>7.4537166452631578e-11</v>
+        <v>4.3874712144183431e-14</v>
       </c>
       <c r="K35">
-        <v>7.4537166452632056e-11</v>
+        <v>4.3874712144183557e-14</v>
       </c>
       <c r="L35">
         <v>5</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>8.9859676846989692e-05</v>
+        <v>0.00013748087067428041</v>
       </c>
       <c r="C36">
-        <v>0.011246218725761741</v>
+        <v>0.35301219403409922</v>
       </c>
       <c r="D36">
-        <v>6.6842491768247437e-12</v>
+        <v>1.8435801068869926e-11</v>
       </c>
       <c r="E36">
-        <v>6.6842491768247445e-12</v>
+        <v>1.8435801068869894e-11</v>
       </c>
       <c r="F36">
-        <v>0.86950830636637377</v>
+        <v>0.54570167247087131</v>
       </c>
       <c r="G36">
-        <v>0.11502831807109663</v>
+        <v>0.094201670228738474</v>
       </c>
       <c r="H36">
-        <v>0.0041272971264995862</v>
+        <v>0.0069469823034374817</v>
       </c>
       <c r="I36">
-        <v>6.6842491768245337e-12</v>
+        <v>1.8435801068869871e-11</v>
       </c>
       <c r="J36">
-        <v>6.684249176824528e-12</v>
+        <v>1.8435801068869871e-11</v>
       </c>
       <c r="K36">
-        <v>6.6842491768245377e-12</v>
+        <v>1.8435801068869865e-11</v>
       </c>
       <c r="L36">
         <v>5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>1.4788564880399265e-05</v>
+        <v>7.171180359310458e-05</v>
       </c>
       <c r="C37">
-        <v>0.11641594664829598</v>
+        <v>0.014240366338876886</v>
       </c>
       <c r="D37">
-        <v>3.0623081722240746e-11</v>
+        <v>5.2850587616974642e-12</v>
       </c>
       <c r="E37">
-        <v>3.0623081722240727e-11</v>
+        <v>5.2850587616974625e-12</v>
       </c>
       <c r="F37">
-        <v>0.88355558578948901</v>
+        <v>0.85756277788082946</v>
       </c>
       <c r="G37">
-        <v>1.5014248330372287e-09</v>
+        <v>0.12522203372817725</v>
       </c>
       <c r="H37">
-        <v>1.3677342794183133e-05</v>
+        <v>0.0029031102220977742</v>
       </c>
       <c r="I37">
-        <v>3.0623081722240682e-11</v>
+        <v>5.2850587616974706e-12</v>
       </c>
       <c r="J37">
-        <v>3.0623081722240617e-11</v>
+        <v>5.2850587616974569e-12</v>
       </c>
       <c r="K37">
-        <v>3.0623081722240688e-11</v>
+        <v>5.2850587616974617e-12</v>
       </c>
       <c r="L37">
         <v>5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0071562884436118419</v>
+        <v>0.021324290656506362</v>
       </c>
       <c r="C38">
-        <v>1.8766671936690921e-08</v>
+        <v>0.051467867591482024</v>
       </c>
       <c r="D38">
-        <v>2.2200119287966154e-14</v>
+        <v>1.1775998730457035e-10</v>
       </c>
       <c r="E38">
-        <v>2.2200119287966154e-14</v>
+        <v>1.1775998730457024e-10</v>
       </c>
       <c r="F38">
-        <v>0.99284369278893969</v>
+        <v>0.92446270725107216</v>
       </c>
       <c r="G38">
-        <v>2.2200119287966154e-14</v>
+        <v>5.320462907557363e-05</v>
       </c>
       <c r="H38">
-        <v>6.4327955874279158e-13</v>
+        <v>0.0026919292830641628</v>
       </c>
       <c r="I38">
-        <v>2.2200119287966154e-14</v>
+        <v>1.1775998730457029e-10</v>
       </c>
       <c r="J38">
-        <v>2.2200119287966154e-14</v>
+        <v>1.1775998730456996e-10</v>
       </c>
       <c r="K38">
-        <v>2.2200119287966154e-14</v>
+        <v>1.1775998730457024e-10</v>
       </c>
       <c r="L38">
         <v>5</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00034256261265552443</v>
+        <v>5.3273823528017267e-05</v>
       </c>
       <c r="C39">
-        <v>2.7338588627601828e-08</v>
+        <v>3.7535858355660668e-09</v>
       </c>
       <c r="D39">
-        <v>7.0342606538404529e-13</v>
+        <v>3.0793727856705937e-13</v>
       </c>
       <c r="E39">
-        <v>7.0342606538404378e-13</v>
+        <v>3.0793727856705755e-13</v>
       </c>
       <c r="F39">
-        <v>0.942037416783572</v>
+        <v>0.99683674211535045</v>
       </c>
       <c r="G39">
-        <v>0.008400645988871025</v>
+        <v>0.0015531823330387159</v>
       </c>
       <c r="H39">
-        <v>0.049219347272795443</v>
+        <v>0.0015567979729572429</v>
       </c>
       <c r="I39">
-        <v>7.0342606538404256e-13</v>
+        <v>3.0793727856705573e-13</v>
       </c>
       <c r="J39">
-        <v>7.0342606538404226e-13</v>
+        <v>3.0793727856705301e-13</v>
       </c>
       <c r="K39">
-        <v>7.0342606538404246e-13</v>
+        <v>3.0793727856705523e-13</v>
       </c>
       <c r="L39">
         <v>5</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.00046787164453706155</v>
+        <v>0.0087103346927051278</v>
       </c>
       <c r="C40">
-        <v>1.0174994761528776e-08</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="D40">
-        <v>5.2761626501207003e-14</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="E40">
-        <v>5.2761626501206895e-14</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="F40">
-        <v>0.96639802439106137</v>
+        <v>0.99128966530711715</v>
       </c>
       <c r="G40">
-        <v>1.2586835185523604e-05</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="H40">
-        <v>0.033121506953957464</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="I40">
-        <v>5.276162650120704e-14</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="J40">
-        <v>5.2761626501206952e-14</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="K40">
-        <v>5.2761626501207015e-14</v>
+        <v>2.2199875532768556e-14</v>
       </c>
       <c r="L40">
         <v>5</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.00038870878511605087</v>
+        <v>4.4053253762787401e-05</v>
       </c>
       <c r="C41">
-        <v>0.33585945937440814</v>
+        <v>0.032610305975098057</v>
       </c>
       <c r="D41">
-        <v>4.3868488659234855e-11</v>
+        <v>1.2027298188606646e-11</v>
       </c>
       <c r="E41">
-        <v>4.3868488659234849e-11</v>
+        <v>1.2027298188606636e-11</v>
       </c>
       <c r="F41">
-        <v>0.53058600692901581</v>
+        <v>0.7829884648337998</v>
       </c>
       <c r="G41">
-        <v>0.12144031913534017</v>
+        <v>0.1755930456592194</v>
       </c>
       <c r="H41">
-        <v>0.011725505556777434</v>
+        <v>0.0087641302179832514</v>
       </c>
       <c r="I41">
-        <v>4.3868488659234836e-11</v>
+        <v>1.2027298188606602e-11</v>
       </c>
       <c r="J41">
-        <v>4.3868488659234746e-11</v>
+        <v>1.2027298188606594e-11</v>
       </c>
       <c r="K41">
-        <v>4.3868488659234791e-11</v>
+        <v>1.2027298188606604e-11</v>
       </c>
       <c r="L41">
         <v>5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00010915400658602897</v>
+        <v>3.9572819897598749e-06</v>
       </c>
       <c r="C42">
-        <v>0.0066227120619192174</v>
+        <v>0.28879700103301209</v>
       </c>
       <c r="D42">
-        <v>6.5738455622633619e-12</v>
+        <v>1.4137807396638581e-12</v>
       </c>
       <c r="E42">
-        <v>6.5738455622633514e-12</v>
+        <v>1.4137807396638581e-12</v>
       </c>
       <c r="F42">
-        <v>0.91538836605862817</v>
+        <v>0.43739553350231108</v>
       </c>
       <c r="G42">
-        <v>0.074494620493377489</v>
+        <v>0.27216822686378772</v>
       </c>
       <c r="H42">
-        <v>0.0033851473466195801</v>
+        <v>0.0016352813118301933</v>
       </c>
       <c r="I42">
-        <v>6.573845562263349e-12</v>
+        <v>1.4137807396638581e-12</v>
       </c>
       <c r="J42">
-        <v>6.5738455622633425e-12</v>
+        <v>1.4137807396638577e-12</v>
       </c>
       <c r="K42">
-        <v>6.5738455622633562e-12</v>
+        <v>1.4137807396638571e-12</v>
       </c>
       <c r="L42">
         <v>5</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.026219882237949098</v>
+        <v>0.001058675421574715</v>
       </c>
       <c r="C43">
-        <v>0.018391672516470912</v>
+        <v>0.0010580452860140333</v>
       </c>
       <c r="D43">
-        <v>1.9423079682413985e-10</v>
+        <v>0.0010580452335098502</v>
       </c>
       <c r="E43">
-        <v>1.9423079682413902e-10</v>
+        <v>0.0010580452335098404</v>
       </c>
       <c r="F43">
-        <v>0.95227775672927339</v>
+        <v>0.99044494530297011</v>
       </c>
       <c r="G43">
-        <v>1.1070266006939865e-05</v>
+        <v>0.0010752778817011966</v>
       </c>
       <c r="H43">
-        <v>0.0030996172791454796</v>
+        <v>0.0010728299401910561</v>
       </c>
       <c r="I43">
-        <v>1.9423079682414047e-10</v>
+        <v>0.0010580452335096483</v>
       </c>
       <c r="J43">
-        <v>1.9423079682413923e-10</v>
+        <v>0.0010580452335096386</v>
       </c>
       <c r="K43">
-        <v>1.9423079682414037e-10</v>
+        <v>0.0010580452335096433</v>
       </c>
       <c r="L43">
         <v>5</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00025568337252857758</v>
+        <v>0.00017560952680990773</v>
       </c>
       <c r="C44">
-        <v>3.1006042494472768e-08</v>
+        <v>2.1482439501386106e-05</v>
       </c>
       <c r="D44">
-        <v>1.3249595655266001e-12</v>
+        <v>6.1531819903162743e-12</v>
       </c>
       <c r="E44">
-        <v>1.3249595655265935e-12</v>
+        <v>6.1531819903162226e-12</v>
       </c>
       <c r="F44">
-        <v>0.97276049374068396</v>
+        <v>0.98183164059721961</v>
       </c>
       <c r="G44">
-        <v>0.0093873678800033538</v>
+        <v>0.016731096047468957</v>
       </c>
       <c r="H44">
-        <v>0.01759642399411666</v>
+        <v>0.0012401713582342873</v>
       </c>
       <c r="I44">
-        <v>1.3249595655265997e-12</v>
+        <v>6.1531819903162178e-12</v>
       </c>
       <c r="J44">
-        <v>1.3249595655265973e-12</v>
+        <v>6.1531819903162032e-12</v>
       </c>
       <c r="K44">
-        <v>1.3249595655266007e-12</v>
+        <v>6.1531819903162186e-12</v>
       </c>
       <c r="L44">
         <v>5</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0.011345015896329743</v>
+        <v>0.060043407412531821</v>
       </c>
       <c r="C45">
-        <v>2.2199892294991989e-14</v>
+        <v>4.8524900892494085e-10</v>
       </c>
       <c r="D45">
-        <v>2.2199892294991989e-14</v>
+        <v>2.7365811706513059e-11</v>
       </c>
       <c r="E45">
-        <v>2.2199892294991989e-14</v>
+        <v>2.7365811706513024e-11</v>
       </c>
       <c r="F45">
-        <v>0.98865498410349273</v>
+        <v>0.93995657824740519</v>
       </c>
       <c r="G45">
-        <v>2.2199892294991989e-14</v>
+        <v>2.7365811706513176e-11</v>
       </c>
       <c r="H45">
-        <v>2.2199892294991989e-14</v>
+        <v>1.3690619287919773e-08</v>
       </c>
       <c r="I45">
-        <v>2.2199892294991989e-14</v>
+        <v>2.7365811706513176e-11</v>
       </c>
       <c r="J45">
-        <v>2.2199892294991989e-14</v>
+        <v>2.7365811706513117e-11</v>
       </c>
       <c r="K45">
-        <v>2.2199892294991989e-14</v>
+        <v>2.7365811706513159e-11</v>
       </c>
       <c r="L45">
         <v>5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>2.0003569353983313e-05</v>
+        <v>0.066245203692482782</v>
       </c>
       <c r="C46">
-        <v>0.027702767175411737</v>
+        <v>5.3368169738828897e-10</v>
       </c>
       <c r="D46">
-        <v>1.2831956844172296e-11</v>
+        <v>3.0368601086058224e-11</v>
       </c>
       <c r="E46">
-        <v>1.2831956844172242e-11</v>
+        <v>3.0368601086058172e-11</v>
       </c>
       <c r="F46">
-        <v>0.92640536631886572</v>
+        <v>0.93375477899011827</v>
       </c>
       <c r="G46">
-        <v>0.044584674018285544</v>
+        <v>3.0368601086058147e-11</v>
       </c>
       <c r="H46">
-        <v>0.0012871888539232876</v>
+        <v>1.6601505611404964e-08</v>
       </c>
       <c r="I46">
-        <v>1.283195684417231e-11</v>
+        <v>3.0368601086058063e-11</v>
       </c>
       <c r="J46">
-        <v>1.2831956844172273e-11</v>
+        <v>3.0368601086058037e-11</v>
       </c>
       <c r="K46">
-        <v>1.2831956844172246e-11</v>
+        <v>3.0368601086058153e-11</v>
       </c>
       <c r="L46">
         <v>5</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.086666976977935073</v>
+        <v>0.056534105427758365</v>
       </c>
       <c r="C47">
-        <v>0.10202494377931016</v>
+        <v>4.1535455812391279e-09</v>
       </c>
       <c r="D47">
-        <v>0.086666917859375067</v>
+        <v>5.7769322862867621e-11</v>
       </c>
       <c r="E47">
-        <v>0.086666917859375039</v>
+        <v>5.7769322862867453e-11</v>
       </c>
       <c r="F47">
-        <v>0.1976211567258816</v>
+        <v>0.94346579063672198</v>
       </c>
       <c r="G47">
-        <v>0.093656348475449222</v>
+        <v>5.7769322862867583e-11</v>
       </c>
       <c r="H47">
-        <v>0.086695984744548552</v>
+        <v>9.9435358326048755e-08</v>
       </c>
       <c r="I47">
-        <v>0.086666917859375081</v>
+        <v>5.7769322862867524e-11</v>
       </c>
       <c r="J47">
-        <v>0.086666917859375039</v>
+        <v>5.7769322862867492e-11</v>
       </c>
       <c r="K47">
-        <v>0.086666917859375137</v>
+        <v>5.7769322862867576e-11</v>
       </c>
       <c r="L47">
         <v>5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.001180941098434078</v>
+        <v>0.0001403485440821086</v>
       </c>
       <c r="C48">
-        <v>0.0011799910674777413</v>
+        <v>0.027827287818065104</v>
       </c>
       <c r="D48">
-        <v>0.0011799908610054225</v>
+        <v>8.7538182055640701e-12</v>
       </c>
       <c r="E48">
-        <v>0.0011799908610054153</v>
+        <v>8.7538182055640685e-12</v>
       </c>
       <c r="F48">
-        <v>0.98932581055762026</v>
+        <v>0.79004365323489956</v>
       </c>
       <c r="G48">
-        <v>0.0012100960584109236</v>
+        <v>0.17406811473304423</v>
       </c>
       <c r="H48">
-        <v>0.001203206913030047</v>
+        <v>0.0079205956261400694</v>
       </c>
       <c r="I48">
-        <v>0.0011799908610054225</v>
+        <v>8.7538182055638536e-12</v>
       </c>
       <c r="J48">
-        <v>0.0011799908610054131</v>
+        <v>8.7538182055638391e-12</v>
       </c>
       <c r="K48">
-        <v>0.0011799908610054192</v>
+        <v>8.7538182055638552e-12</v>
       </c>
       <c r="L48">
         <v>5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.00014289425873645405</v>
+        <v>0.006425509735559636</v>
       </c>
       <c r="C49">
-        <v>1.0447885800711557e-05</v>
+        <v>0.072804342648764855</v>
       </c>
       <c r="D49">
-        <v>4.7091679223997006e-12</v>
+        <v>7.9064205304044969e-10</v>
       </c>
       <c r="E49">
-        <v>4.7091679223996667e-12</v>
+        <v>7.9064205304044783e-10</v>
       </c>
       <c r="F49">
-        <v>0.98381811512927131</v>
+        <v>0.81290816844733083</v>
       </c>
       <c r="G49">
-        <v>0.014811099401758241</v>
+        <v>0.0062706674310920767</v>
       </c>
       <c r="H49">
-        <v>0.0012174433008876255</v>
+        <v>0.10159130778404231</v>
       </c>
       <c r="I49">
-        <v>4.7091679223996748e-12</v>
+        <v>7.9064205304044917e-10</v>
       </c>
       <c r="J49">
-        <v>4.7091679223996376e-12</v>
+        <v>7.9064205304044752e-10</v>
       </c>
       <c r="K49">
-        <v>4.7091679223996675e-12</v>
+        <v>7.9064205304044834e-10</v>
       </c>
       <c r="L49">
         <v>5</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.038708487933731953</v>
+        <v>4.5925579716560897e-06</v>
       </c>
       <c r="C50">
-        <v>2.8914782475870935e-12</v>
+        <v>0.32772520323632015</v>
       </c>
       <c r="D50">
-        <v>2.891478247584956e-12</v>
+        <v>2.5048702423088235e-12</v>
       </c>
       <c r="E50">
-        <v>2.8914782475849492e-12</v>
+        <v>2.5048702423088235e-12</v>
       </c>
       <c r="F50">
-        <v>0.96129151192779905</v>
+        <v>0.43366207675558094</v>
       </c>
       <c r="G50">
-        <v>2.8914782475849552e-12</v>
+        <v>0.2368742483072781</v>
       </c>
       <c r="H50">
-        <v>1.182287242678303e-10</v>
+        <v>0.0017338791303249091</v>
       </c>
       <c r="I50">
-        <v>2.891478247584952e-12</v>
+        <v>2.5048702423088235e-12</v>
       </c>
       <c r="J50">
-        <v>2.891478247584948e-12</v>
+        <v>2.5048702423088223e-12</v>
       </c>
       <c r="K50">
-        <v>2.8914782475849492e-12</v>
+        <v>2.5048702423088223e-12</v>
       </c>
       <c r="L50">
         <v>5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.055521614928994101</v>
+        <v>3.5203832519429732e-05</v>
       </c>
       <c r="C51">
-        <v>7.9534872884182537e-11</v>
+        <v>2.0181217509645064e-09</v>
       </c>
       <c r="D51">
-        <v>1.1740028781640843e-11</v>
+        <v>2.301667786974855e-13</v>
       </c>
       <c r="E51">
-        <v>1.1740028781640827e-11</v>
+        <v>2.3016677869748333e-13</v>
       </c>
       <c r="F51">
-        <v>0.9444783795427717</v>
+        <v>0.99784267833664919</v>
       </c>
       <c r="G51">
-        <v>1.174002878164084e-11</v>
+        <v>0.00089531269656850025</v>
       </c>
       <c r="H51">
-        <v>5.3782592477108969e-09</v>
+        <v>0.0012268031149902021</v>
       </c>
       <c r="I51">
-        <v>1.1740028781640822e-11</v>
+        <v>2.3016677869748408e-13</v>
       </c>
       <c r="J51">
-        <v>1.1740028781640817e-11</v>
+        <v>2.3016677869748222e-13</v>
       </c>
       <c r="K51">
-        <v>1.1740028781640827e-11</v>
+        <v>2.3016677869748434e-13</v>
       </c>
       <c r="L51">
         <v>5</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
+      <c r="A52" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.075245807120603789</v>
+        <v>3.4788484187593488e-05</v>
       </c>
       <c r="C52">
-        <v>1.1253934671895241e-09</v>
+        <v>6.1453603937966042e-08</v>
       </c>
       <c r="D52">
-        <v>9.232025435893192e-11</v>
+        <v>0.18587330216668763</v>
       </c>
       <c r="E52">
-        <v>9.2320254358931739e-11</v>
+        <v>7.4922118419032432e-14</v>
       </c>
       <c r="F52">
-        <v>0.92475404781994375</v>
+        <v>0.80065986867043037</v>
       </c>
       <c r="G52">
-        <v>9.2320254358931958e-11</v>
+        <v>0.00051650053928276377</v>
       </c>
       <c r="H52">
-        <v>1.4338013761475375e-07</v>
+        <v>0.012915478685507815</v>
       </c>
       <c r="I52">
-        <v>9.2320254358931945e-11</v>
+        <v>7.4922118419032432e-14</v>
       </c>
       <c r="J52">
-        <v>9.2320254358931777e-11</v>
+        <v>7.4922118419032432e-14</v>
       </c>
       <c r="K52">
-        <v>9.2320254358932281e-11</v>
+        <v>7.4922118419032407e-14</v>
       </c>
       <c r="L52">
         <v>5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
+      <c r="A53" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.00038497189291303183</v>
+        <v>4.0285258172572121e-06</v>
       </c>
       <c r="C53">
-        <v>0.026651001089183671</v>
+        <v>0.3109093978994269</v>
       </c>
       <c r="D53">
-        <v>1.0458548646760156e-11</v>
+        <v>2.2228012216320046e-12</v>
       </c>
       <c r="E53">
-        <v>1.0458548646760161e-11</v>
+        <v>2.2228012216320042e-12</v>
       </c>
       <c r="F53">
-        <v>0.71399979174121764</v>
+        <v>0.44814582111584422</v>
       </c>
       <c r="G53">
-        <v>0.2344092731809482</v>
+        <v>0.2391708043946148</v>
       </c>
       <c r="H53">
-        <v>0.02455496204344474</v>
+        <v>0.0017699480531826917</v>
       </c>
       <c r="I53">
-        <v>1.045854864676014e-11</v>
+        <v>2.2228012216320034e-12</v>
       </c>
       <c r="J53">
-        <v>1.045854864676014e-11</v>
+        <v>2.2228012216320034e-12</v>
       </c>
       <c r="K53">
-        <v>1.0458548646760169e-11</v>
+        <v>2.2228012216320046e-12</v>
       </c>
       <c r="L53">
         <v>5</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
+      <c r="A54" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0023615637353816064</v>
+        <v>0.0002875812061601995</v>
       </c>
       <c r="C54">
-        <v>0.038371474894570649</v>
+        <v>7.6289391812462652e-08</v>
       </c>
       <c r="D54">
-        <v>4.1996842734020982e-10</v>
+        <v>6.9372216213628391e-13</v>
       </c>
       <c r="E54">
-        <v>4.1996842734020915e-10</v>
+        <v>6.937221621362827e-13</v>
       </c>
       <c r="F54">
-        <v>0.8499721756557258</v>
+        <v>0.97615974535288719</v>
       </c>
       <c r="G54">
-        <v>0.0066714055399295898</v>
+        <v>0.012465779771977397</v>
       </c>
       <c r="H54">
-        <v>0.10262337807455044</v>
+        <v>0.011086817376114977</v>
       </c>
       <c r="I54">
-        <v>4.1996842734019364e-10</v>
+        <v>6.9372216213628502e-13</v>
       </c>
       <c r="J54">
-        <v>4.1996842734019261e-10</v>
+        <v>6.937221621362825e-13</v>
       </c>
       <c r="K54">
-        <v>4.1996842734019323e-10</v>
+        <v>6.9372216213628613e-13</v>
       </c>
       <c r="L54">
         <v>5</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
+      <c r="A55" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>1.1375770937864724e-05</v>
+        <v>0.00067784364943966895</v>
       </c>
       <c r="C55">
-        <v>0.27575105103736258</v>
+        <v>2.3003422030869842e-07</v>
       </c>
       <c r="D55">
-        <v>4.0803276683790498e-12</v>
+        <v>9.3582409496369904e-14</v>
       </c>
       <c r="E55">
-        <v>4.0803276683790466e-12</v>
+        <v>9.3582409496369639e-14</v>
       </c>
       <c r="F55">
-        <v>0.48525123659196751</v>
+        <v>0.98529949690445873</v>
       </c>
       <c r="G55">
-        <v>0.23531408289312075</v>
+        <v>0.0012390207010241976</v>
       </c>
       <c r="H55">
-        <v>0.0036722536862096376</v>
+        <v>0.012783408710389202</v>
       </c>
       <c r="I55">
-        <v>4.0803276683790433e-12</v>
+        <v>9.3582409496369664e-14</v>
       </c>
       <c r="J55">
-        <v>4.0803276683790433e-12</v>
+        <v>9.3582409496369311e-14</v>
       </c>
       <c r="K55">
-        <v>4.0803276683790482e-12</v>
+        <v>9.3582409496369652e-14</v>
       </c>
       <c r="L55">
         <v>5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
+      <c r="A56" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.0011212220089028206</v>
+        <v>0.063233403531247817</v>
       </c>
       <c r="C56">
-        <v>0.0011203440198796367</v>
+        <v>1.3699599672874746e-09</v>
       </c>
       <c r="D56">
-        <v>0.001120343983930327</v>
+        <v>3.767242078851627e-11</v>
       </c>
       <c r="E56">
-        <v>0.0011203439839303172</v>
+        <v>3.7672420788516128e-11</v>
       </c>
       <c r="F56">
-        <v>0.98986499698932506</v>
+        <v>0.93676655297133415</v>
       </c>
       <c r="G56">
-        <v>0.0011361781058622079</v>
+        <v>3.7672420788516212e-11</v>
       </c>
       <c r="H56">
-        <v>0.0011555389563788099</v>
+        <v>4.1901423326510553e-08</v>
       </c>
       <c r="I56">
-        <v>0.0011203439839303144</v>
+        <v>3.7672420788516212e-11</v>
       </c>
       <c r="J56">
-        <v>0.0011203439839303042</v>
+        <v>3.7672420788515986e-11</v>
       </c>
       <c r="K56">
-        <v>0.0011203439839303163</v>
+        <v>3.7672420788516115e-11</v>
       </c>
       <c r="L56">
         <v>5</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
+      <c r="A57" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.046630801918533894</v>
+        <v>1.7275676841806938e-06</v>
       </c>
       <c r="C57">
-        <v>6.9139748056046339e-12</v>
+        <v>6.3307710740302911e-05</v>
       </c>
       <c r="D57">
-        <v>6.9139748056046331e-12</v>
+        <v>3.6120940685195182e-14</v>
       </c>
       <c r="E57">
-        <v>6.9139748056046315e-12</v>
+        <v>3.6120940685194778e-14</v>
       </c>
       <c r="F57">
-        <v>0.60991903761339838</v>
+        <v>0.99993496415845984</v>
       </c>
       <c r="G57">
-        <v>7.0197058903693056e-09</v>
+        <v>3.612094068530744e-14</v>
       </c>
       <c r="H57">
-        <v>0.00027457641293770568</v>
+        <v>5.6289916003544394e-10</v>
       </c>
       <c r="I57">
-        <v>6.9139748056046412e-12</v>
+        <v>3.6120940685186952e-14</v>
       </c>
       <c r="J57">
-        <v>0.34317557700085405</v>
+        <v>3.6120940685186649e-14</v>
       </c>
       <c r="K57">
-        <v>6.9139748056046436e-12</v>
+        <v>3.6120940685187066e-14</v>
       </c>
       <c r="L57">
         <v>5</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
+      <c r="A58" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>2.7302646251258803e-05</v>
+        <v>4.6147953978649579e-05</v>
       </c>
       <c r="C58">
-        <v>9.9672825098705063e-08</v>
+        <v>0.016696384798137082</v>
       </c>
       <c r="D58">
-        <v>0.15506676380511586</v>
+        <v>5.7536479852691002e-12</v>
       </c>
       <c r="E58">
-        <v>5.3007792179953801e-14</v>
+        <v>5.7536479852690881e-12</v>
       </c>
       <c r="F58">
-        <v>0.83784187568739033</v>
+        <v>0.89558519457041708</v>
       </c>
       <c r="G58">
-        <v>0.0006990860780290276</v>
+        <v>0.085886004252032175</v>
       </c>
       <c r="H58">
-        <v>0.0063648721101766254</v>
+        <v>0.001786268396666733</v>
       </c>
       <c r="I58">
-        <v>5.3007792179953775e-14</v>
+        <v>5.7536479852691051e-12</v>
       </c>
       <c r="J58">
-        <v>5.3007792179953769e-14</v>
+        <v>5.7536479852690986e-12</v>
       </c>
       <c r="K58">
-        <v>5.3007792179953731e-14</v>
+        <v>5.7536479852691043e-12</v>
       </c>
       <c r="L58">
         <v>5</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
+      <c r="A59" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>6.0917385485131979e-06</v>
+        <v>0.00023982129192555549</v>
       </c>
       <c r="C59">
-        <v>0.32634626384160526</v>
+        <v>3.5245895300731788e-08</v>
       </c>
       <c r="D59">
-        <v>4.3738959243217501e-12</v>
+        <v>3.2617443710038849e-14</v>
       </c>
       <c r="E59">
-        <v>4.3738959243217501e-12</v>
+        <v>3.2617443710038741e-14</v>
       </c>
       <c r="F59">
-        <v>0.44129013585923338</v>
+        <v>0.97110117550587149</v>
       </c>
       <c r="G59">
-        <v>0.22943040463925532</v>
+        <v>9.2550183234652582e-06</v>
       </c>
       <c r="H59">
-        <v>0.0029271038994884034</v>
+        <v>0.028649712937820936</v>
       </c>
       <c r="I59">
-        <v>4.3738959243217154e-12</v>
+        <v>3.2617443710037555e-14</v>
       </c>
       <c r="J59">
-        <v>4.3738959243217154e-12</v>
+        <v>3.2617443710037485e-14</v>
       </c>
       <c r="K59">
-        <v>4.3738959243217267e-12</v>
+        <v>3.2617443710037567e-14</v>
       </c>
       <c r="L59">
         <v>5</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.00030274063409358197</v>
+        <v>0.00089776958263191567</v>
       </c>
       <c r="C60">
-        <v>8.7216513341122032e-08</v>
+        <v>2.8345342514993165e-05</v>
       </c>
       <c r="D60">
-        <v>8.2498917829702351e-13</v>
+        <v>1.0370025988728562e-12</v>
       </c>
       <c r="E60">
-        <v>8.2498917829701957e-13</v>
+        <v>1.0370025988728554e-12</v>
       </c>
       <c r="F60">
-        <v>0.97537536017711168</v>
+        <v>0.86819596040699787</v>
       </c>
       <c r="G60">
-        <v>0.01193968593382678</v>
+        <v>0.082891095464128234</v>
       </c>
       <c r="H60">
-        <v>0.012382126034329474</v>
+        <v>0.047986829198542198</v>
       </c>
       <c r="I60">
-        <v>8.2498917829694212e-13</v>
+        <v>1.0370025988728568e-12</v>
       </c>
       <c r="J60">
-        <v>8.249891782969398e-13</v>
+        <v>1.0370025988728564e-12</v>
       </c>
       <c r="K60">
-        <v>8.2498917829694122e-13</v>
+        <v>1.0370025988728578e-12</v>
       </c>
       <c r="L60">
         <v>5</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
+      <c r="A61" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0013166724867832687</v>
+        <v>0.009931689182900565</v>
       </c>
       <c r="C61">
-        <v>3.2528946228039255e-07</v>
+        <v>0.00013636938778358818</v>
       </c>
       <c r="D61">
-        <v>1.5931072951393654e-13</v>
+        <v>7.7811580641994989e-13</v>
       </c>
       <c r="E61">
-        <v>1.5931072951393591e-13</v>
+        <v>7.7811580641994979e-13</v>
       </c>
       <c r="F61">
-        <v>0.97495817989659761</v>
+        <v>0.87678275001444006</v>
       </c>
       <c r="G61">
-        <v>0.0021569992858315179</v>
+        <v>0.01787848950365762</v>
       </c>
       <c r="H61">
-        <v>0.021567823040528657</v>
+        <v>0.095270701907327934</v>
       </c>
       <c r="I61">
-        <v>1.5931072951392629e-13</v>
+        <v>7.7811580641994929e-13</v>
       </c>
       <c r="J61">
-        <v>1.5931072951392583e-13</v>
+        <v>7.7811580641994899e-13</v>
       </c>
       <c r="K61">
-        <v>1.5931072951392631e-13</v>
+        <v>7.7811580641994969e-13</v>
       </c>
       <c r="L61">
         <v>5</v>
